--- a/data/epas3.xlsx
+++ b/data/epas3.xlsx
@@ -268,7 +268,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,6 +298,9 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -312,15 +315,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,7 +348,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -354,6 +357,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Accent 1 1" xfId="20"/>
     <cellStyle name="Accent 1 2" xfId="21"/>
+    <cellStyle name="Accent 1 3" xfId="22"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -471,14 +475,14 @@
   </sheetPr>
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ2" activeCellId="0" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.33"/>
@@ -632,11 +636,11 @@
       </c>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">

--- a/data/epas3.xlsx
+++ b/data/epas3.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Ελλάδα</t>
   </si>
   <si>
-    <t xml:space="preserve">ΝΑΙ</t>
+    <t xml:space="preserve">ΟΧΙ</t>
   </si>
   <si>
     <t xml:space="preserve">28/07/2025</t>
@@ -475,8 +475,8 @@
   </sheetPr>
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ2" activeCellId="0" sqref="AJ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/epas3.xlsx
+++ b/data/epas3.xlsx
@@ -136,7 +136,7 @@
     <t xml:space="preserve">ΑΡΙΘ. ΦΟΙΤΗΣΕΩΝ</t>
   </si>
   <si>
-    <t xml:space="preserve">aigal A2</t>
+    <t xml:space="preserve">aigal B2</t>
   </si>
   <si>
     <t xml:space="preserve">2025/2026</t>
@@ -475,8 +475,8 @@
   </sheetPr>
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
